--- a/data/Iramp-4.xlsx
+++ b/data/Iramp-4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d966331bce661fd/School/4A/460/460_E4_Thermionic_Emission/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tokiy\OneDrive\School\4A\460\460_E4_Thermionic_Emission\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>Vset (V)</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>Vf (V)</t>
+  </si>
+  <si>
+    <t>If (A)</t>
   </si>
 </sst>
 </file>
@@ -395,15 +398,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{785AF9D2-5EFB-48B5-ABB7-CEE2D2C11BBD}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,84 +428,85 @@
       <c r="H1" t="s">
         <v>4</v>
       </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>300</v>
       </c>
       <c r="B2">
-        <v>299.02</v>
+        <v>299.87</v>
       </c>
       <c r="C2">
-        <v>0.78</v>
+        <v>0.86</v>
       </c>
       <c r="D2">
-        <v>286.45</v>
-      </c>
-      <c r="F2" s="1">
-        <v>299.89</v>
-      </c>
-      <c r="G2">
-        <v>0.79</v>
-      </c>
+        <v>280.3</v>
+      </c>
+      <c r="F2" s="1"/>
       <c r="H2">
-        <v>4.8490000000000002</v>
+        <v>4.2525000000000004</v>
+      </c>
+      <c r="I2">
+        <v>1.7919</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>250</v>
       </c>
       <c r="B3">
-        <v>251.33</v>
+        <v>250</v>
       </c>
       <c r="C3">
-        <v>0.76</v>
+        <v>0.85</v>
       </c>
       <c r="D3">
-        <v>239.3</v>
+        <v>239.1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>200</v>
       </c>
       <c r="B4">
-        <v>199.45</v>
+        <v>201.2</v>
       </c>
       <c r="C4">
-        <v>0.73</v>
+        <v>0.84</v>
       </c>
       <c r="D4" s="2">
-        <v>187.71</v>
+        <v>190.2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>150</v>
       </c>
       <c r="B5" s="2">
-        <v>150.30000000000001</v>
+        <v>149.5</v>
       </c>
       <c r="C5">
-        <v>0.71</v>
+        <v>0.82</v>
       </c>
       <c r="D5">
-        <v>138.65</v>
+        <v>138.9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>100</v>
       </c>
       <c r="B6">
-        <v>99.28</v>
+        <v>100.7</v>
       </c>
       <c r="C6">
-        <v>0.69</v>
+        <v>0.79</v>
       </c>
       <c r="D6">
-        <v>88.2</v>
+        <v>90.4</v>
       </c>
     </row>
   </sheetData>
